--- a/投资信息/股票投资/02-汽车股/汽车股票分析.xlsx
+++ b/投资信息/股票投资/02-汽车股/汽车股票分析.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F579A33-86BC-4658-9BCB-DD3E8014B085}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC608A-FA96-4628-8503-D5C233954542}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,15 +406,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>155114</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>78914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1094872</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>1158372</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -437,7 +437,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6337300" y="5806614"/>
+          <a:off x="6400800" y="6086014"/>
           <a:ext cx="4974722" cy="1546686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -715,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26848F88-7004-4078-935B-0D11DEB9749F}">
   <dimension ref="A3:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/投资信息/股票投资/02-汽车股/汽车股票分析.xlsx
+++ b/投资信息/股票投资/02-汽车股/汽车股票分析.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC608A-FA96-4628-8503-D5C233954542}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08559DE-7ADC-4C7F-9BA9-290C3F2E36B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汽车参数比较" sheetId="1" r:id="rId1"/>
-    <sheet name="长城汽车" sheetId="2" r:id="rId2"/>
+    <sheet name="汽车股按时间" sheetId="3" r:id="rId2"/>
+    <sheet name="长城汽车" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
   <si>
     <t>2018年</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -218,6 +219,138 @@
   </si>
   <si>
     <t>投资现金流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>2017年</t>
+  </si>
+  <si>
+    <t>2018年</t>
+  </si>
+  <si>
+    <t>2019年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润增长率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>股价 3月1日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>股价 6月1日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>股价 9月1日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>股价 12月1日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均PE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华域汽车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整车制造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车零配件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车行业今年不景气，按照退缩5%的比例，预计每股收益2.96</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照平均PE8 计算，23.64为低估价位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照行业PE 9，且今年每股收益不退，保持3.08,27.72位出 价位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照行业PE 9，且今年每股收益2.96，26,64为考虑价位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,47%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车零配件PE 为7.5，预计今年不会增长，低估价格19.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照预计PE 9 ，预计今年不增长，出售价格为22.95</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>威孚高科</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着时间，PE值递减，说明是传统行业，对未来期望的高额增长不大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照递减规律，今年递减到7.5左右，若今年收益减少10%，则价值为16.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴维斯双降</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照行业PE 7.5，若增长保持变，则低估价值为 8.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照行业PE7.5，若保持去年增长20%，则考虑卖出价位8.85</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高估价 PE 9 * 1.18 =10.62</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高估价 10*2.17= 21.7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -339,6 +478,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -715,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -977,10 +1126,1646 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B3349C-3EB2-4CA1-8F1E-C4D49ADCA641}">
+  <dimension ref="A2:N91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="9" width="10" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.1236</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.1142</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.1278</v>
+      </c>
+      <c r="E5" s="19">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="G5" s="19">
+        <v>7.51E-2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4.65E-2</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2.54</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2.96</v>
+      </c>
+      <c r="H6" s="18">
+        <v>3.08</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2.96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18">
+        <v>12.88</v>
+      </c>
+      <c r="E7" s="18">
+        <v>24.28</v>
+      </c>
+      <c r="F7" s="18">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G7" s="18">
+        <v>25.8</v>
+      </c>
+      <c r="H7" s="18">
+        <v>33.93</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="18">
+        <f>D7/D6</f>
+        <v>5.0708661417322833</v>
+      </c>
+      <c r="E8" s="18">
+        <f>E7/E6</f>
+        <v>8.992592592592592</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" ref="F8:H8" si="0">F7/F6</f>
+        <v>6.3448275862068959</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>8.7162162162162158</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>11.016233766233766</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="18">
+        <v>14.51</v>
+      </c>
+      <c r="E9" s="18">
+        <v>24.95</v>
+      </c>
+      <c r="F9" s="18">
+        <v>20.21</v>
+      </c>
+      <c r="G9" s="18">
+        <v>30.52</v>
+      </c>
+      <c r="H9" s="18">
+        <v>35.76</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="18">
+        <f>D9/D6</f>
+        <v>5.71259842519685</v>
+      </c>
+      <c r="E10" s="18">
+        <f>E9/E6</f>
+        <v>9.2407407407407405</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" ref="F10:H10" si="1">F9/F6</f>
+        <v>6.9689655172413802</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="1"/>
+        <v>10.310810810810811</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>11.610389610389609</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="18">
+        <v>17.16</v>
+      </c>
+      <c r="E11" s="18">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="F11" s="18">
+        <v>21.93</v>
+      </c>
+      <c r="G11" s="18">
+        <v>29.55</v>
+      </c>
+      <c r="H11" s="18">
+        <v>29.06</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="18">
+        <f>D11/D6</f>
+        <v>6.7559055118110232</v>
+      </c>
+      <c r="E12" s="18">
+        <f>E11/E6</f>
+        <v>6.4592592592592597</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" ref="F12:G12" si="2">F11/F6</f>
+        <v>7.5620689655172413</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="2"/>
+        <v>9.9831081081081088</v>
+      </c>
+      <c r="H12" s="18">
+        <f>H11/H6</f>
+        <v>9.4350649350649345</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="18">
+        <v>19.41</v>
+      </c>
+      <c r="E13" s="18">
+        <v>19.57</v>
+      </c>
+      <c r="F13" s="18">
+        <v>25.73</v>
+      </c>
+      <c r="G13" s="18">
+        <v>30.92</v>
+      </c>
+      <c r="H13" s="18">
+        <v>25.38</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="18">
+        <f>D13/D6</f>
+        <v>7.6417322834645667</v>
+      </c>
+      <c r="E14" s="18">
+        <f>E13/E6</f>
+        <v>7.2481481481481476</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" ref="F14:H14" si="3">F13/F6</f>
+        <v>8.8724137931034495</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="3"/>
+        <v>10.445945945945947</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="3"/>
+        <v>8.2402597402597397</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="18">
+        <f>(D8+D10+D12+D14)/4</f>
+        <v>6.2952755905511806</v>
+      </c>
+      <c r="E15" s="18">
+        <f>(E8+E10+E12+E14)/4</f>
+        <v>7.9851851851851849</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" ref="F15:H15" si="4">(F8+F10+F12+F14)/4</f>
+        <v>7.4370689655172413</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="4"/>
+        <v>9.8640202702702702</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="4"/>
+        <v>10.075487012987011</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.1431</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.2923</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="G21" s="19">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.2248</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1.85</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.93</v>
+      </c>
+      <c r="G22" s="18">
+        <v>2.08</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="18">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E23" s="18">
+        <v>18.245000000000001</v>
+      </c>
+      <c r="F23" s="18">
+        <v>12.88</v>
+      </c>
+      <c r="G23" s="18">
+        <v>16.97</v>
+      </c>
+      <c r="H23" s="18">
+        <v>26.48</v>
+      </c>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="18">
+        <f>D23/D22</f>
+        <v>5.4476744186046506</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" ref="E24:H24" si="5">E23/E22</f>
+        <v>9.8621621621621625</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="5"/>
+        <v>6.6735751295336794</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="5"/>
+        <v>8.1586538461538449</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="5"/>
+        <v>10.384313725490196</v>
+      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="18">
+        <v>9.17</v>
+      </c>
+      <c r="E25" s="18">
+        <v>20.74</v>
+      </c>
+      <c r="F25" s="18">
+        <v>14.73</v>
+      </c>
+      <c r="G25" s="18">
+        <v>20.23</v>
+      </c>
+      <c r="H25" s="18">
+        <v>24.36</v>
+      </c>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="18">
+        <f>D25/D22</f>
+        <v>5.3313953488372094</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" ref="E26:H26" si="6">E25/E22</f>
+        <v>11.210810810810809</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="6"/>
+        <v>7.6321243523316067</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="6"/>
+        <v>9.7259615384615383</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="6"/>
+        <v>9.552941176470588</v>
+      </c>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="18">
+        <v>11.74</v>
+      </c>
+      <c r="E27" s="18">
+        <v>14.39</v>
+      </c>
+      <c r="F27" s="18">
+        <v>15.8</v>
+      </c>
+      <c r="G27" s="18">
+        <v>20.65</v>
+      </c>
+      <c r="H27" s="18">
+        <v>20.63</v>
+      </c>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="18">
+        <f>D27/D22</f>
+        <v>6.8255813953488378</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" ref="E28:H28" si="7">E27/E22</f>
+        <v>7.7783783783783784</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="7"/>
+        <v>8.1865284974093271</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" si="7"/>
+        <v>9.927884615384615</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="7"/>
+        <v>8.0901960784313722</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="18">
+        <v>14.85</v>
+      </c>
+      <c r="E29" s="18">
+        <v>16.07</v>
+      </c>
+      <c r="F29" s="18">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="G29" s="18">
+        <v>25.63</v>
+      </c>
+      <c r="H29" s="18">
+        <v>17.75</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="18">
+        <f>D29/D22</f>
+        <v>8.6337209302325579</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" ref="E30:H30" si="8">E29/E22</f>
+        <v>8.686486486486487</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="8"/>
+        <v>8.9430051813471518</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="8"/>
+        <v>12.322115384615383</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="8"/>
+        <v>6.9607843137254903</v>
+      </c>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="18">
+        <f>(D24+D26+D28+D30)/4</f>
+        <v>6.5595930232558146</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" ref="E31:H31" si="9">(E24+E26+E28+E30)/4</f>
+        <v>9.3844594594594586</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="9"/>
+        <v>7.8588082901554408</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="9"/>
+        <v>10.033653846153847</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="9"/>
+        <v>8.7470588235294109</v>
+      </c>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.254</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E36" s="19">
+        <v>-1.5599999999999999E-2</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.53769999999999996</v>
+      </c>
+      <c r="H36" s="19">
+        <v>-6.8199999999999997E-2</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1.51</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1.49</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1.66</v>
+      </c>
+      <c r="G37" s="18">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H37" s="18">
+        <v>2.37</v>
+      </c>
+      <c r="I37" s="18">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="18">
+        <v>25.28</v>
+      </c>
+      <c r="E38" s="18">
+        <v>32.76</v>
+      </c>
+      <c r="F38" s="18">
+        <v>16.41</v>
+      </c>
+      <c r="G38" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="H38" s="18">
+        <v>23.77</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="K38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="18">
+        <f>D38/D37</f>
+        <v>16.741721854304636</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" ref="E39:H39" si="10">E38/E37</f>
+        <v>21.986577181208052</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="10"/>
+        <v>9.8855421686747</v>
+      </c>
+      <c r="G39" s="18">
+        <f t="shared" si="10"/>
+        <v>9.3725490196078436</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="10"/>
+        <v>10.029535864978902</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="K39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="18">
+        <v>25.69</v>
+      </c>
+      <c r="E40" s="18">
+        <v>35.99</v>
+      </c>
+      <c r="F40" s="18">
+        <v>17.55</v>
+      </c>
+      <c r="G40" s="18">
+        <v>21.53</v>
+      </c>
+      <c r="H40" s="18">
+        <v>22.53</v>
+      </c>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="18">
+        <f>D40/D37</f>
+        <v>17.013245033112582</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" ref="E41:H41" si="11">E40/E37</f>
+        <v>24.154362416107386</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" si="11"/>
+        <v>10.572289156626507</v>
+      </c>
+      <c r="G41" s="18">
+        <f t="shared" si="11"/>
+        <v>8.443137254901961</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="11"/>
+        <v>9.5063291139240516</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="K41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="18">
+        <v>26.96</v>
+      </c>
+      <c r="E42" s="18">
+        <v>22.76</v>
+      </c>
+      <c r="F42" s="18">
+        <v>21.05</v>
+      </c>
+      <c r="G42" s="18">
+        <v>25.53</v>
+      </c>
+      <c r="H42" s="18">
+        <v>18.93</v>
+      </c>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="18">
+        <f>D42/D37</f>
+        <v>17.85430463576159</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" ref="E43:H43" si="12">E42/E37</f>
+        <v>15.275167785234901</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="12"/>
+        <v>12.680722891566266</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="12"/>
+        <v>10.011764705882355</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="12"/>
+        <v>7.9873417721518987</v>
+      </c>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C44" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="18">
+        <v>26.51</v>
+      </c>
+      <c r="E44" s="18">
+        <v>23.77</v>
+      </c>
+      <c r="F44" s="18">
+        <v>25.12</v>
+      </c>
+      <c r="G44" s="18">
+        <v>25.53</v>
+      </c>
+      <c r="H44" s="18">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="18">
+        <f>D44/D37</f>
+        <v>17.556291390728479</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" ref="E45:H45" si="13">E44/E37</f>
+        <v>15.953020134228188</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="13"/>
+        <v>15.132530120481929</v>
+      </c>
+      <c r="G45" s="18">
+        <f t="shared" si="13"/>
+        <v>10.011764705882355</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="13"/>
+        <v>7.9451476793248936</v>
+      </c>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="18">
+        <f>(D39+D41+D43+D45)/4</f>
+        <v>17.29139072847682</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" ref="E46:H46" si="14">(E39+E41+E43+E45)/4</f>
+        <v>19.34228187919463</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="14"/>
+        <v>12.067771084337352</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" si="14"/>
+        <v>9.4598039215686285</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="14"/>
+        <v>8.8670886075949369</v>
+      </c>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="E49" s="19">
+        <v>0.2301</v>
+      </c>
+      <c r="F49" s="19">
+        <v>0.2263</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="H49" s="19">
+        <v>0.2233</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="E50" s="19">
+        <v>-0.7177</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1.7888999999999999</v>
+      </c>
+      <c r="H50" s="19">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="H51" s="18">
+        <v>1.08</v>
+      </c>
+      <c r="I51" s="18">
+        <v>1.18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="18">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="E52" s="18">
+        <v>26.27</v>
+      </c>
+      <c r="F52" s="18">
+        <v>7.3</v>
+      </c>
+      <c r="G52" s="18">
+        <v>11.49</v>
+      </c>
+      <c r="H52" s="18">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C53" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="18">
+        <f>D52/D51</f>
+        <v>6.8326693227091635</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" ref="E53:H53" si="15">E52/E51</f>
+        <v>75.057142857142864</v>
+      </c>
+      <c r="F53" s="18">
+        <f t="shared" si="15"/>
+        <v>11.967213114754099</v>
+      </c>
+      <c r="G53" s="18">
+        <f t="shared" si="15"/>
+        <v>13.517647058823529</v>
+      </c>
+      <c r="H53" s="18">
+        <f t="shared" si="15"/>
+        <v>7.7592592592592595</v>
+      </c>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C54" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="18">
+        <v>17.52</v>
+      </c>
+      <c r="E54" s="18">
+        <v>32.21</v>
+      </c>
+      <c r="F54" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="G54" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>8.67</v>
+      </c>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C55" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="18">
+        <f>D54/D51</f>
+        <v>6.9800796812749004</v>
+      </c>
+      <c r="E55" s="18">
+        <f t="shared" ref="E55:H55" si="16">E54/E51</f>
+        <v>92.028571428571439</v>
+      </c>
+      <c r="F55" s="18">
+        <f t="shared" si="16"/>
+        <v>12.934426229508196</v>
+      </c>
+      <c r="G55" s="18">
+        <f t="shared" si="16"/>
+        <v>13.058823529411764</v>
+      </c>
+      <c r="H55" s="18">
+        <f t="shared" si="16"/>
+        <v>8.0277777777777768</v>
+      </c>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C56" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="18">
+        <v>20.57</v>
+      </c>
+      <c r="E56" s="18">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="F56" s="18">
+        <v>8.75</v>
+      </c>
+      <c r="G56" s="18">
+        <v>7.25</v>
+      </c>
+      <c r="H56" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C57" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="18">
+        <f>D56/D51</f>
+        <v>8.1952191235059768</v>
+      </c>
+      <c r="E57" s="18">
+        <f t="shared" ref="E57:H57" si="17">E56/E51</f>
+        <v>27.257142857142856</v>
+      </c>
+      <c r="F57" s="18">
+        <f t="shared" si="17"/>
+        <v>14.344262295081968</v>
+      </c>
+      <c r="G57" s="18">
+        <f t="shared" si="17"/>
+        <v>8.5294117647058822</v>
+      </c>
+      <c r="H57" s="18">
+        <f t="shared" si="17"/>
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C58" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="18">
+        <v>22.43</v>
+      </c>
+      <c r="E58" s="18">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="F58" s="18">
+        <v>11.17</v>
+      </c>
+      <c r="G58" s="18">
+        <v>8.17</v>
+      </c>
+      <c r="H58" s="18">
+        <v>7.52</v>
+      </c>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C59" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="18">
+        <f>D58/D51</f>
+        <v>8.9362549800796813</v>
+      </c>
+      <c r="E59" s="18">
+        <f t="shared" ref="E59:H59" si="18">E58/E51</f>
+        <v>27.257142857142856</v>
+      </c>
+      <c r="F59" s="18">
+        <f t="shared" si="18"/>
+        <v>18.311475409836067</v>
+      </c>
+      <c r="G59" s="18">
+        <f t="shared" si="18"/>
+        <v>9.6117647058823525</v>
+      </c>
+      <c r="H59" s="18">
+        <f t="shared" si="18"/>
+        <v>6.9629629629629619</v>
+      </c>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C60" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="18">
+        <f>(D53+D55+D57+D59)/4</f>
+        <v>7.7360557768924298</v>
+      </c>
+      <c r="E60" s="18">
+        <f t="shared" ref="E60:H60" si="19">(E53+E55+E57+E59)/4</f>
+        <v>55.400000000000006</v>
+      </c>
+      <c r="F60" s="18">
+        <f t="shared" si="19"/>
+        <v>14.389344262295083</v>
+      </c>
+      <c r="G60" s="18">
+        <f t="shared" si="19"/>
+        <v>11.179411764705883</v>
+      </c>
+      <c r="H60" s="18">
+        <f t="shared" si="19"/>
+        <v>7.5624999999999991</v>
+      </c>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C64" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C65" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C67" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C68" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C69" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C71" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C72" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C73" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C74" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C75" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C79" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C80" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C81" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C82" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C84" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C85" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C86" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C87" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C88" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C89" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C91" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26848F88-7004-4078-935B-0D11DEB9749F}">
   <dimension ref="A3:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
